--- a/code/excels/kvConfig/npc_position_config.xlsx
+++ b/code/excels/kvConfig/npc_position_config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EOM\Documents\c2\excels\kvConfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A069F-F273-4DB4-AAF8-2ACA721B4580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>位置id</t>
   </si>
@@ -122,9 +116,6 @@
     <t>dota_hero_monkey_king</t>
   </si>
   <si>
-    <t>你是猴子请来的逗比吗？|龙从风，虎从雷，我从石头缝。|跟你不熟，走开！|我有个宝贝叫棍子，想尝尝吗？</t>
-  </si>
-  <si>
     <t>1001:100</t>
   </si>
   <si>
@@ -137,6 +128,12 @@
     <t>unit_1001</t>
   </si>
   <si>
+    <t>unit_red_tp</t>
+  </si>
+  <si>
+    <t>unit_blue_tp</t>
+  </si>
+  <si>
     <t>字段注释</t>
   </si>
   <si>
@@ -180,19 +177,19 @@
   </si>
   <si>
     <t>4：中立生物</t>
-  </si>
-  <si>
-    <t>unit_red_tp</t>
-  </si>
-  <si>
-    <t>unit_blue_tp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,28 +198,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -230,11 +544,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -255,21 +811,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -527,41 +1130,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="5.08333333333333" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="6.08333333333333" customWidth="1"/>
+    <col min="12" max="12" width="7.91666666666667" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="12.125" customWidth="1"/>
     <col min="15" max="15" width="13.375" customWidth="1"/>
     <col min="16" max="16" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -607,11 +1211,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="4" customFormat="1" ht="36.75" customHeight="1" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -657,11 +1261,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="4" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A3" s="7">
         <v>1001</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -691,23 +1295,21 @@
       <c r="L3" s="4">
         <v>1</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="7">
         <v>2001</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4">
         <v>2223</v>
@@ -735,20 +1337,20 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+    <row r="5" spans="1:14">
+      <c r="A5" s="9">
         <v>2002</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4">
         <v>2400</v>
@@ -775,18 +1377,18 @@
         <v>1</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>2500</v>
@@ -813,18 +1415,18 @@
         <v>1</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9">
         <v>2004</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4">
         <v>2600</v>
@@ -851,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7">
         <v>3001</v>
       </c>
@@ -862,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4">
         <v>6583</v>
@@ -889,15 +1491,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:12">
+      <c r="A9" s="9">
         <v>3002</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4">
         <v>3723</v>
@@ -924,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="7">
         <v>3003</v>
       </c>
@@ -932,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4">
         <v>-6619</v>
@@ -959,15 +1561,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:12">
+      <c r="A11" s="9">
         <v>3004</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4">
         <v>-4749</v>
@@ -994,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="7">
         <v>3005</v>
       </c>
@@ -1002,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4">
         <v>-1076</v>
@@ -1029,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="7">
         <v>3006</v>
       </c>
@@ -1037,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4">
         <v>2395</v>
@@ -1064,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="7">
         <v>3007</v>
       </c>
@@ -1072,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4">
         <v>3353</v>
@@ -1099,15 +1701,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="15" spans="1:12">
+      <c r="A15" s="9">
         <v>3008</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4">
         <v>-2918</v>
@@ -1134,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="7">
         <v>3009</v>
       </c>
@@ -1142,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4">
         <v>-6161</v>
@@ -1169,15 +1771,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    <row r="17" spans="1:12">
+      <c r="A17" s="9">
         <v>3010</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4">
         <v>-945</v>
@@ -1204,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="7">
         <v>3011</v>
       </c>
@@ -1212,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4">
         <v>-6524</v>
@@ -1239,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="7">
         <v>3012</v>
       </c>
@@ -1247,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E19" s="4">
         <v>-923</v>
@@ -1275,21 +1877,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
@@ -1304,12 +1907,12 @@
     <col min="19" max="19" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1351,7 +1954,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
@@ -1360,12 +1963,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -1407,7 +2010,7 @@
         <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>30</v>
@@ -1416,72 +2019,72 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="R3" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -1523,41 +2126,41 @@
         <v>16</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="12:12">
       <c r="L7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="12:12">
       <c r="L8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="15:15">
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="15:15">
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="12:15">
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="13:15">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="9:15">
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1565,14 +2168,14 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="9:11">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>